--- a/data/fact_data/parbhani/Parbhani_Sec_Dec_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Dec_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED2129A-A0A6-A145-B397-240E038F1EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D4D8E7-FAF7-AC49-AB8A-B9D268F08AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Dec</t>
   </si>
   <si>
-    <t>Dec</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1984,13 @@
         <v>5369</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2104,13 @@
         <v>1936</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2134,13 @@
         <v>1026</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2174,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2216,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2246,13 @@
         <v>4392</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2276,13 @@
         <v>728</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
@@ -2308,13 +2306,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>8</v>
@@ -2335,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>195</v>
@@ -2365,13 +2363,13 @@
         <v>1820</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>298</v>
@@ -2395,13 +2393,13 @@
         <v>686</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -2451,13 +2449,13 @@
         <v>3591</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2481,13 +2479,13 @@
         <v>3095</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2564,13 +2562,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2622,13 @@
         <v>0</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -2654,13 +2652,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2668,7 +2666,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2684,13 +2682,13 @@
         <v>430</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2698,7 +2696,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2714,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2728,7 +2726,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>6</v>
@@ -2744,13 +2742,13 @@
         <v>0</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2774,13 +2772,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2788,7 +2786,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2804,13 +2802,13 @@
         <v>3945</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -2834,13 +2832,13 @@
         <v>865</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2864,13 +2862,13 @@
         <v>863</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2878,7 +2876,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>2</v>
@@ -2891,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2917,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2947,13 +2945,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2977,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2991,7 +2989,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -3007,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3037,13 +3035,13 @@
         <v>3861</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3067,13 +3065,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3081,7 +3079,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -3097,13 +3095,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3111,7 +3109,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -3127,13 +3125,13 @@
         <v>2368</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3141,7 +3139,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3157,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -3184,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3198,7 +3196,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3207,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3237,13 +3235,13 @@
         <v>2952</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3267,13 +3265,13 @@
         <v>471</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3297,13 +3295,13 @@
         <v>892</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3311,7 +3309,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -3324,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3338,7 +3336,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3350,13 +3348,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3364,7 +3362,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -3378,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3392,7 +3390,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3406,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3420,7 +3418,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -3434,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3448,7 +3446,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3460,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3474,7 +3472,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -3488,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3502,7 +3500,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3514,13 +3512,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3528,7 +3526,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3544,13 +3542,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3558,7 +3556,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3574,13 +3572,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3588,7 +3586,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3604,13 +3602,13 @@
         <v>2475</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3618,7 +3616,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3634,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3648,7 +3646,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3660,13 +3658,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3674,7 +3672,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3682,13 +3680,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3696,7 +3694,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3708,13 +3706,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3722,7 +3720,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3734,13 +3732,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3748,7 +3746,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -3757,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3771,7 +3769,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3779,13 +3777,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3793,7 +3791,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>18</v>
@@ -3805,13 +3803,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3819,7 +3817,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3827,13 +3825,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3841,7 +3839,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>2</v>
@@ -3853,13 +3851,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3867,7 +3865,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>4</v>
@@ -3876,13 +3874,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3902,9 +3900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3914,31 +3910,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3959,13 +3955,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3989,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4019,13 +4015,13 @@
         <v>5551</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4045,13 +4041,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4071,13 +4067,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4097,13 +4093,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4127,13 +4123,13 @@
         <v>1848</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4157,13 +4153,13 @@
         <v>2223</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4171,7 +4167,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4183,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4197,7 +4193,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4209,13 +4205,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4235,13 +4231,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4265,13 +4261,13 @@
         <v>7686</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4291,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4305,7 +4301,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4317,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4331,7 +4327,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4340,13 +4336,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4354,7 +4350,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>92</v>
@@ -4370,13 +4366,13 @@
         <v>6790</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4384,7 +4380,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>39</v>
@@ -4400,13 +4396,13 @@
         <v>2695</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4414,7 +4410,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4426,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4440,7 +4436,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4452,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4466,7 +4462,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4478,13 +4474,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4492,7 +4488,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4501,13 +4497,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4531,13 +4527,13 @@
         <v>3190</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4545,7 +4541,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4561,13 +4557,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4591,13 +4587,13 @@
         <v>480</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4621,13 +4617,13 @@
         <v>2880</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4635,7 +4631,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4647,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4661,7 +4657,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4677,13 +4673,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4691,7 +4687,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4705,13 +4701,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4719,7 +4715,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4735,13 +4731,13 @@
         <v>807</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4749,7 +4745,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4765,13 +4761,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4779,7 +4775,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4795,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4809,7 +4805,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4825,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4855,13 +4851,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4869,7 +4865,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4882,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4908,13 +4904,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4938,13 +4934,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4964,13 +4960,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4978,7 +4974,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4990,13 +4986,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5016,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5042,13 +5038,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5056,7 +5052,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5068,13 +5064,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5082,7 +5078,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5098,13 +5094,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5112,7 +5108,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5128,13 +5124,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5142,7 +5138,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5155,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5169,7 +5165,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5178,13 +5174,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5204,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5230,13 +5226,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5256,13 +5252,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5270,7 +5266,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -5283,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5297,7 +5293,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5309,13 +5305,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5323,7 +5319,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>2</v>
@@ -5337,13 +5333,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5351,7 +5347,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5363,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5377,7 +5373,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5387,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5401,7 +5397,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5413,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5427,7 +5423,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5437,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5451,7 +5447,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5463,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5477,7 +5473,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5489,13 +5485,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5503,7 +5499,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5515,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5529,7 +5525,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5541,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5555,7 +5551,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5567,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5581,7 +5577,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5589,13 +5585,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5603,7 +5599,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5611,13 +5607,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5625,7 +5621,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5633,13 +5629,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5647,7 +5643,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5655,13 +5651,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5669,18 +5665,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5688,7 +5684,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5696,13 +5692,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5710,7 +5706,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>10</v>
@@ -5722,13 +5718,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5736,7 +5732,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5744,13 +5740,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5758,7 +5754,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -5770,13 +5766,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5784,7 +5780,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -5793,13 +5789,13 @@
         <v>3</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5818,9 +5814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5830,31 +5824,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5871,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5897,13 +5891,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5927,13 +5921,13 @@
         <v>3276</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5953,13 +5947,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5979,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6005,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6035,13 +6029,13 @@
         <v>1760</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6065,13 +6059,13 @@
         <v>1824</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6079,7 +6073,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6095,13 +6089,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6109,7 +6103,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6125,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6151,13 +6145,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6181,13 +6175,13 @@
         <v>7625</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6211,13 +6205,13 @@
         <v>2912</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6225,7 +6219,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -6241,13 +6235,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6255,7 +6249,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6268,13 +6262,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6282,7 +6276,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>330</v>
@@ -6298,13 +6292,13 @@
         <v>9450</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6312,7 +6306,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>161</v>
@@ -6328,13 +6322,13 @@
         <v>4508</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6342,7 +6336,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6358,13 +6352,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6372,7 +6366,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>16</v>
@@ -6388,13 +6382,13 @@
         <v>18753</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6402,7 +6396,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>5</v>
@@ -6418,13 +6412,13 @@
         <v>3714</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6432,7 +6426,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6441,13 +6435,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6471,13 +6465,13 @@
         <v>6380</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6485,7 +6479,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -6501,13 +6495,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6531,13 +6525,13 @@
         <v>1680</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6561,13 +6555,13 @@
         <v>4320</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6575,7 +6569,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>4</v>
@@ -6591,13 +6585,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6605,7 +6599,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6621,13 +6615,13 @@
         <v>2150</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6635,7 +6629,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6651,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6665,7 +6659,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -6681,13 +6675,13 @@
         <v>1883</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6695,7 +6689,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
@@ -6711,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6725,7 +6719,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6741,13 +6735,13 @@
         <v>789</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6755,7 +6749,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6771,13 +6765,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6801,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6815,7 +6809,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -6828,13 +6822,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6854,13 +6848,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6884,13 +6878,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6914,13 +6908,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6928,7 +6922,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>2</v>
@@ -6944,13 +6938,13 @@
         <v>168</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6974,13 +6968,13 @@
         <v>6435</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -7004,13 +6998,13 @@
         <v>2716</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7018,7 +7012,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -7034,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7048,7 +7042,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -7064,13 +7058,13 @@
         <v>3552</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7078,7 +7072,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7094,13 +7088,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7108,7 +7102,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>2</v>
@@ -7121,13 +7115,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7135,7 +7129,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7144,13 +7138,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7174,13 +7168,13 @@
         <v>2952</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7204,13 +7198,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7234,13 +7228,13 @@
         <v>892</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7248,7 +7242,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -7261,13 +7255,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7275,7 +7269,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7287,13 +7281,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7301,7 +7295,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -7315,13 +7309,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7329,7 +7323,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7341,13 +7335,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7355,7 +7349,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -7369,13 +7363,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7383,7 +7377,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7395,13 +7389,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7409,7 +7403,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -7423,13 +7417,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7437,7 +7431,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7449,13 +7443,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7463,7 +7457,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7479,13 +7473,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7493,7 +7487,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7509,13 +7503,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7523,7 +7517,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7539,13 +7533,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7553,7 +7547,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7569,13 +7563,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7583,7 +7577,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7595,13 +7589,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7609,7 +7603,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7617,13 +7611,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7631,7 +7625,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7643,13 +7637,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7657,7 +7651,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7669,13 +7663,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7683,7 +7677,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7692,13 +7686,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7706,7 +7700,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7714,13 +7708,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7728,7 +7722,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>5</v>
@@ -7740,13 +7734,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7754,7 +7748,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7766,13 +7760,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7780,7 +7774,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>4</v>
@@ -7792,13 +7786,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7806,7 +7800,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>5</v>
@@ -7815,13 +7809,13 @@
         <v>6</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7840,9 +7834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7851,31 +7843,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7892,13 +7884,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7918,13 +7910,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7948,13 +7940,13 @@
         <v>728</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7978,13 +7970,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -8008,13 +8000,13 @@
         <v>260</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8034,13 +8026,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8064,13 +8056,13 @@
         <v>2992</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8094,13 +8086,13 @@
         <v>1140</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8108,7 +8100,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8120,13 +8112,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8134,7 +8126,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8146,13 +8138,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8176,13 +8168,13 @@
         <v>1115</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8206,13 +8198,13 @@
         <v>8723</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8236,13 +8228,13 @@
         <v>8008</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8250,7 +8242,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -8266,13 +8258,13 @@
         <v>147</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8280,7 +8272,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -8293,13 +8285,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8307,7 +8299,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>196</v>
@@ -8323,13 +8315,13 @@
         <v>3220</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8337,7 +8329,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>243</v>
@@ -8353,13 +8345,13 @@
         <v>539</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8367,7 +8359,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8379,13 +8371,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8393,7 +8385,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -8409,13 +8401,13 @@
         <v>27930</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8423,7 +8415,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -8439,13 +8431,13 @@
         <v>6190</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8453,7 +8445,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8462,13 +8454,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8492,13 +8484,13 @@
         <v>3190</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8506,7 +8498,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -8522,13 +8514,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8552,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8582,13 +8574,13 @@
         <v>1920</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8596,7 +8588,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>5</v>
@@ -8612,13 +8604,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8626,7 +8618,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8642,13 +8634,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8656,7 +8648,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8672,13 +8664,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8686,7 +8678,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -8702,13 +8694,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8716,7 +8708,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
@@ -8732,13 +8724,13 @@
         <v>1899</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8746,7 +8738,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -8762,13 +8754,13 @@
         <v>3156</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8776,7 +8768,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -8792,13 +8784,13 @@
         <v>3460</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8822,13 +8814,13 @@
         <v>2589</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8836,7 +8828,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -8849,13 +8841,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8875,13 +8867,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8905,13 +8897,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8935,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8949,7 +8941,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -8965,13 +8957,13 @@
         <v>672</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8995,13 +8987,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9023,13 +9015,13 @@
         <v>13580</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9037,7 +9029,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -9053,13 +9045,13 @@
         <v>5080</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9067,7 +9059,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9083,13 +9075,13 @@
         <v>2368</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9097,7 +9089,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9113,13 +9105,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9127,7 +9119,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -9140,13 +9132,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9154,7 +9146,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9163,13 +9155,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9193,13 +9185,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9223,13 +9215,13 @@
         <v>314</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9253,13 +9245,13 @@
         <v>1115</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9267,7 +9259,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -9280,13 +9272,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9294,7 +9286,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9306,13 +9298,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9320,7 +9312,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -9334,13 +9326,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9348,7 +9340,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9360,13 +9352,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9374,7 +9366,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>17</v>
@@ -9388,13 +9380,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9402,7 +9394,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9414,13 +9406,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9428,7 +9420,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -9442,13 +9434,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9456,7 +9448,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9468,13 +9460,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9482,7 +9474,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9494,13 +9486,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9508,7 +9500,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9520,13 +9512,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9534,7 +9526,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9546,13 +9538,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9560,7 +9552,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9572,13 +9564,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9586,7 +9578,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9594,13 +9586,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9608,7 +9600,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9616,13 +9608,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9630,7 +9622,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9638,13 +9630,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9652,7 +9644,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9660,13 +9652,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9674,18 +9666,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9693,7 +9685,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9701,13 +9693,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9715,7 +9707,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>9</v>
@@ -9727,13 +9719,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9741,7 +9733,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9749,13 +9741,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9763,7 +9755,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -9775,13 +9767,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9789,7 +9781,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -9798,13 +9790,13 @@
         <v>19</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9823,9 +9815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9835,31 +9825,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9876,13 +9866,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9902,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9932,13 +9922,13 @@
         <v>5915</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9958,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9988,13 +9978,13 @@
         <v>390</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -10014,13 +10004,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10044,13 +10034,13 @@
         <v>5280</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10074,13 +10064,13 @@
         <v>1596</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10088,7 +10078,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10100,13 +10090,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10114,7 +10104,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10126,13 +10116,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10156,13 +10146,13 @@
         <v>223</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10186,13 +10176,13 @@
         <v>13725</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10216,13 +10206,13 @@
         <v>10296</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10230,7 +10220,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -10246,13 +10236,13 @@
         <v>245</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10260,7 +10250,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -10273,13 +10263,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10287,7 +10277,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>100</v>
@@ -10303,13 +10293,13 @@
         <v>22470</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10317,7 +10307,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>122</v>
@@ -10333,13 +10323,13 @@
         <v>5439</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10347,7 +10337,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10359,13 +10349,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G19" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10373,7 +10363,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>14</v>
@@ -10389,13 +10379,13 @@
         <v>21945</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10403,7 +10393,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10415,13 +10405,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10429,7 +10419,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10438,13 +10428,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10468,13 +10458,13 @@
         <v>3828</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10482,7 +10472,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -10498,13 +10488,13 @@
         <v>408</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10528,13 +10518,13 @@
         <v>3120</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10558,13 +10548,13 @@
         <v>1920</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10572,7 +10562,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -10588,13 +10578,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10602,7 +10592,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -10618,13 +10608,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10632,7 +10622,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -10648,13 +10638,13 @@
         <v>6480</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G29" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10662,7 +10652,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>0</v>
@@ -10678,13 +10668,13 @@
         <v>1345</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G30" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10692,7 +10682,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -10708,13 +10698,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10722,7 +10712,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -10738,13 +10728,13 @@
         <v>3945</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10752,7 +10742,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -10768,13 +10758,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10798,13 +10788,13 @@
         <v>4315</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10812,7 +10802,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10821,13 +10811,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G35" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10851,13 +10841,13 @@
         <v>4544</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G36" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10881,13 +10871,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10911,13 +10901,13 @@
         <v>4775</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G38" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10925,7 +10915,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10941,13 +10931,13 @@
         <v>1680</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G39" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10967,13 +10957,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10993,13 +10983,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G41" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -11007,7 +10997,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>0</v>
@@ -11023,13 +11013,13 @@
         <v>2540</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -11037,7 +11027,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -11053,13 +11043,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -11067,7 +11057,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -11083,13 +11073,13 @@
         <v>2265</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G44" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -11097,7 +11087,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -11106,13 +11096,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11120,7 +11110,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11129,13 +11119,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G46" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11159,13 +11149,13 @@
         <v>4920</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G47" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11189,13 +11179,13 @@
         <v>785</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11219,13 +11209,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G49" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11233,7 +11223,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11242,13 +11232,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G50" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11256,7 +11246,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3">
         <v>0</v>
@@ -11272,13 +11262,13 @@
         <v>2420</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G51" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11286,7 +11276,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11296,13 +11286,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G52" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11310,7 +11300,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>5</v>
@@ -11326,13 +11316,13 @@
         <v>17687</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G53" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11340,7 +11330,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11350,13 +11340,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G54" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11364,7 +11354,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -11380,13 +11370,13 @@
         <v>310</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G55" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11394,7 +11384,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11404,13 +11394,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11418,7 +11408,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11430,13 +11420,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11444,7 +11434,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11456,13 +11446,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11470,7 +11460,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11482,13 +11472,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11496,7 +11486,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11508,13 +11498,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G60" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11522,7 +11512,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11534,13 +11524,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G61" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11548,7 +11538,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11556,13 +11546,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G62" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11570,7 +11560,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11578,13 +11568,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G63" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11592,7 +11582,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11600,13 +11590,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G64" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11614,7 +11604,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11622,13 +11612,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11636,18 +11626,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G66" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11655,7 +11645,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
@@ -11667,13 +11657,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G67" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11681,7 +11671,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11689,13 +11679,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G68" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11703,7 +11693,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>10</v>
@@ -11715,13 +11705,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G69" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11729,7 +11719,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>15</v>
@@ -11741,13 +11731,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G70" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11755,7 +11745,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>52640</v>
@@ -11764,13 +11754,13 @@
         <v>199722</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G71" s="25" t="s">
         <v>84</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
